--- a/SchedulingData/dynamic15/pso/scheduling1_1.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,55 +466,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>61.86</v>
+        <v>47.1</v>
       </c>
       <c r="E2" t="n">
-        <v>26.984</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70.28</v>
+        <v>78.86</v>
       </c>
       <c r="E3" t="n">
-        <v>26.612</v>
+        <v>27.264</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.24</v>
+        <v>95.7</v>
       </c>
       <c r="E4" t="n">
-        <v>26.876</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="5">
@@ -523,188 +523,188 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>95.7</v>
       </c>
       <c r="D5" t="n">
-        <v>49.56</v>
+        <v>152.42</v>
       </c>
       <c r="E5" t="n">
-        <v>26.724</v>
+        <v>21.528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.56</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>100.38</v>
+        <v>84.52</v>
       </c>
       <c r="E6" t="n">
-        <v>22.772</v>
+        <v>26.208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>98.95999999999999</v>
+        <v>70.28</v>
       </c>
       <c r="E7" t="n">
-        <v>26.744</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100.38</v>
+        <v>78.86</v>
       </c>
       <c r="D8" t="n">
-        <v>152</v>
+        <v>121.14</v>
       </c>
       <c r="E8" t="n">
-        <v>18.74</v>
+        <v>23.676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>70.28</v>
+        <v>84.52</v>
       </c>
       <c r="D9" t="n">
-        <v>121.72</v>
+        <v>149.94</v>
       </c>
       <c r="E9" t="n">
-        <v>22.608</v>
+        <v>23.296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.22</v>
+        <v>61.2</v>
       </c>
       <c r="E10" t="n">
-        <v>25.968</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>121.72</v>
+        <v>61.2</v>
       </c>
       <c r="D11" t="n">
-        <v>178.22</v>
+        <v>137</v>
       </c>
       <c r="E11" t="n">
-        <v>19.088</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52.22</v>
+        <v>121.14</v>
       </c>
       <c r="D12" t="n">
-        <v>142.42</v>
+        <v>183.32</v>
       </c>
       <c r="E12" t="n">
-        <v>21.048</v>
+        <v>19.568</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>61.86</v>
+        <v>152.42</v>
       </c>
       <c r="D13" t="n">
-        <v>119.16</v>
+        <v>189.62</v>
       </c>
       <c r="E13" t="n">
-        <v>23.864</v>
+        <v>18.448</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>119.16</v>
+        <v>70.28</v>
       </c>
       <c r="D14" t="n">
-        <v>176.46</v>
+        <v>121.72</v>
       </c>
       <c r="E14" t="n">
-        <v>20.744</v>
+        <v>22.608</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>142.42</v>
+        <v>149.94</v>
       </c>
       <c r="D15" t="n">
-        <v>195.88</v>
+        <v>230.44</v>
       </c>
       <c r="E15" t="n">
-        <v>18.312</v>
+        <v>19.376</v>
       </c>
     </row>
     <row r="16">
@@ -732,79 +732,79 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>152</v>
+        <v>189.62</v>
       </c>
       <c r="D16" t="n">
-        <v>194.26</v>
+        <v>242.78</v>
       </c>
       <c r="E16" t="n">
-        <v>16.144</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>195.88</v>
+        <v>47.1</v>
       </c>
       <c r="D17" t="n">
-        <v>269.64</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>15.056</v>
+        <v>24.744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>194.26</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>241.96</v>
+        <v>147.94</v>
       </c>
       <c r="E18" t="n">
-        <v>12.504</v>
+        <v>21.156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>178.22</v>
+        <v>230.44</v>
       </c>
       <c r="D19" t="n">
-        <v>239.32</v>
+        <v>293.46</v>
       </c>
       <c r="E19" t="n">
-        <v>14.108</v>
+        <v>16.184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>98.95999999999999</v>
+        <v>147.94</v>
       </c>
       <c r="D20" t="n">
-        <v>172.26</v>
+        <v>186.74</v>
       </c>
       <c r="E20" t="n">
-        <v>23.504</v>
+        <v>17.916</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>38.24</v>
+        <v>183.32</v>
       </c>
       <c r="D21" t="n">
-        <v>93.42</v>
+        <v>230.04</v>
       </c>
       <c r="E21" t="n">
-        <v>23.468</v>
+        <v>15.536</v>
       </c>
     </row>
     <row r="22">
@@ -846,226 +846,226 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>172.26</v>
+        <v>137</v>
       </c>
       <c r="D22" t="n">
-        <v>224.64</v>
+        <v>180.44</v>
       </c>
       <c r="E22" t="n">
-        <v>19.396</v>
+        <v>17.396</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>176.46</v>
+        <v>180.44</v>
       </c>
       <c r="D23" t="n">
-        <v>236.16</v>
+        <v>231.6</v>
       </c>
       <c r="E23" t="n">
-        <v>17.384</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>236.16</v>
+        <v>231.6</v>
       </c>
       <c r="D24" t="n">
-        <v>305.56</v>
+        <v>268.86</v>
       </c>
       <c r="E24" t="n">
-        <v>14.524</v>
+        <v>10.824</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>241.96</v>
+        <v>121.72</v>
       </c>
       <c r="D25" t="n">
-        <v>317.16</v>
+        <v>176.82</v>
       </c>
       <c r="E25" t="n">
-        <v>8.584</v>
+        <v>19.228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>93.42</v>
+        <v>186.74</v>
       </c>
       <c r="D26" t="n">
-        <v>147.7</v>
+        <v>252.02</v>
       </c>
       <c r="E26" t="n">
-        <v>19.66</v>
+        <v>14.968</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>269.64</v>
+        <v>252.02</v>
       </c>
       <c r="D27" t="n">
-        <v>303.08</v>
+        <v>324.82</v>
       </c>
       <c r="E27" t="n">
-        <v>12.352</v>
+        <v>10.288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>303.08</v>
+        <v>230.04</v>
       </c>
       <c r="D28" t="n">
-        <v>379.7</v>
+        <v>311.94</v>
       </c>
       <c r="E28" t="n">
-        <v>8.800000000000001</v>
+        <v>10.976</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>239.32</v>
+        <v>242.78</v>
       </c>
       <c r="D29" t="n">
-        <v>302.42</v>
+        <v>321.76</v>
       </c>
       <c r="E29" t="n">
-        <v>9.428000000000001</v>
+        <v>11.944</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>317.16</v>
+        <v>324.82</v>
       </c>
       <c r="D30" t="n">
-        <v>386.76</v>
+        <v>368.76</v>
       </c>
       <c r="E30" t="n">
-        <v>5.204</v>
+        <v>7.024</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>305.56</v>
+        <v>293.46</v>
       </c>
       <c r="D31" t="n">
-        <v>380.74</v>
+        <v>354.38</v>
       </c>
       <c r="E31" t="n">
-        <v>11.576</v>
+        <v>12.232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>386.76</v>
+        <v>368.76</v>
       </c>
       <c r="D32" t="n">
-        <v>435.44</v>
+        <v>426.36</v>
       </c>
       <c r="E32" t="n">
-        <v>1.956</v>
+        <v>3.384</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>435.44</v>
+        <v>354.38</v>
       </c>
       <c r="D33" t="n">
-        <v>518.33</v>
+        <v>408.04</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>8.976000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1074,150 +1074,150 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>147.7</v>
+        <v>311.94</v>
       </c>
       <c r="D34" t="n">
-        <v>185.7</v>
+        <v>354.48</v>
       </c>
       <c r="E34" t="n">
-        <v>17.5</v>
+        <v>7.852</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>185.7</v>
+        <v>268.86</v>
       </c>
       <c r="D35" t="n">
-        <v>254.9</v>
+        <v>321.64</v>
       </c>
       <c r="E35" t="n">
-        <v>12.7</v>
+        <v>7.176</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>518.33</v>
+        <v>408.04</v>
       </c>
       <c r="D36" t="n">
-        <v>587.77</v>
+        <v>472.44</v>
       </c>
       <c r="E36" t="n">
-        <v>26.696</v>
+        <v>6.116</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>224.64</v>
+        <v>176.82</v>
       </c>
       <c r="D37" t="n">
-        <v>280.6</v>
+        <v>249.02</v>
       </c>
       <c r="E37" t="n">
-        <v>15.42</v>
+        <v>16.108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>379.7</v>
+        <v>321.64</v>
       </c>
       <c r="D38" t="n">
-        <v>448.44</v>
+        <v>368.14</v>
       </c>
       <c r="E38" t="n">
-        <v>5.536</v>
+        <v>3.656</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>448.44</v>
+        <v>321.76</v>
       </c>
       <c r="D39" t="n">
-        <v>496.66</v>
+        <v>359.36</v>
       </c>
       <c r="E39" t="n">
-        <v>2.344</v>
+        <v>8.824</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>280.6</v>
+        <v>249.02</v>
       </c>
       <c r="D40" t="n">
-        <v>360.8</v>
+        <v>323.02</v>
       </c>
       <c r="E40" t="n">
-        <v>10.5</v>
+        <v>11.308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>360.8</v>
+        <v>472.44</v>
       </c>
       <c r="D41" t="n">
-        <v>433.66</v>
+        <v>521.4</v>
       </c>
       <c r="E41" t="n">
-        <v>6.804</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="42">
@@ -1226,79 +1226,79 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>302.42</v>
+        <v>323.02</v>
       </c>
       <c r="D42" t="n">
-        <v>357.64</v>
+        <v>417.52</v>
       </c>
       <c r="E42" t="n">
-        <v>6.516</v>
+        <v>7.928</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>587.77</v>
+        <v>368.14</v>
       </c>
       <c r="D43" t="n">
-        <v>650.37</v>
+        <v>452.33</v>
       </c>
       <c r="E43" t="n">
-        <v>23.036</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>357.64</v>
+        <v>452.33</v>
       </c>
       <c r="D44" t="n">
-        <v>429.42</v>
+        <v>526.91</v>
       </c>
       <c r="E44" t="n">
-        <v>2.928</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>254.9</v>
+        <v>426.36</v>
       </c>
       <c r="D45" t="n">
-        <v>296.12</v>
+        <v>471.68</v>
       </c>
       <c r="E45" t="n">
-        <v>9.708</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>496.66</v>
+        <v>471.68</v>
       </c>
       <c r="D46" t="n">
-        <v>573.67</v>
+        <v>537.74</v>
       </c>
       <c r="E46" t="n">
         <v>30</v>
@@ -1321,150 +1321,150 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>573.67</v>
+        <v>521.4</v>
       </c>
       <c r="D47" t="n">
-        <v>624.13</v>
+        <v>602.52</v>
       </c>
       <c r="E47" t="n">
-        <v>27.144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>380.74</v>
+        <v>602.52</v>
       </c>
       <c r="D48" t="n">
-        <v>432.94</v>
+        <v>666.8</v>
       </c>
       <c r="E48" t="n">
-        <v>8.496</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>296.12</v>
+        <v>417.52</v>
       </c>
       <c r="D49" t="n">
-        <v>363.8</v>
+        <v>486.36</v>
       </c>
       <c r="E49" t="n">
-        <v>6.06</v>
+        <v>4.624</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>429.42</v>
+        <v>526.91</v>
       </c>
       <c r="D50" t="n">
-        <v>463.18</v>
+        <v>577.1900000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.192</v>
+        <v>22.784</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>463.18</v>
+        <v>354.48</v>
       </c>
       <c r="D51" t="n">
-        <v>559.3</v>
+        <v>394.34</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>4.996</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>624.13</v>
+        <v>577.1900000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>681.41</v>
+        <v>618.75</v>
       </c>
       <c r="E52" t="n">
-        <v>23.556</v>
+        <v>19.768</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>432.94</v>
+        <v>359.36</v>
       </c>
       <c r="D53" t="n">
-        <v>508.26</v>
+        <v>411.86</v>
       </c>
       <c r="E53" t="n">
-        <v>5.584</v>
+        <v>6.664</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>681.41</v>
+        <v>537.74</v>
       </c>
       <c r="D54" t="n">
-        <v>713.61</v>
+        <v>606.9</v>
       </c>
       <c r="E54" t="n">
-        <v>21.476</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="55">
@@ -1473,74 +1473,74 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>559.3</v>
+        <v>486.36</v>
       </c>
       <c r="D55" t="n">
-        <v>639.4</v>
+        <v>548.96</v>
       </c>
       <c r="E55" t="n">
-        <v>26.62</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>508.26</v>
+        <v>548.96</v>
       </c>
       <c r="D56" t="n">
-        <v>582.48</v>
+        <v>623.83</v>
       </c>
       <c r="E56" t="n">
-        <v>1.792</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>582.48</v>
+        <v>618.75</v>
       </c>
       <c r="D57" t="n">
-        <v>670.5</v>
+        <v>655.75</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>17.688</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>650.37</v>
+        <v>606.9</v>
       </c>
       <c r="D58" t="n">
-        <v>712.27</v>
+        <v>653.02</v>
       </c>
       <c r="E58" t="n">
-        <v>18.476</v>
+        <v>23.752</v>
       </c>
     </row>
     <row r="59">
@@ -1549,36 +1549,55 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>363.8</v>
+        <v>394.34</v>
       </c>
       <c r="D59" t="n">
-        <v>410.1</v>
+        <v>468.84</v>
       </c>
       <c r="E59" t="n">
-        <v>3.54</v>
+        <v>1.636</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>433.66</v>
+        <v>468.84</v>
       </c>
       <c r="D60" t="n">
-        <v>512.64</v>
+        <v>561.97</v>
       </c>
       <c r="E60" t="n">
-        <v>3.996</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>pond7</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>411.86</v>
+      </c>
+      <c r="D61" t="n">
+        <v>488.18</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.632</v>
       </c>
     </row>
   </sheetData>
